--- a/Algorithms/Dp/Dp.xlsx
+++ b/Algorithms/Dp/Dp.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Knapsack" sheetId="1" r:id="rId1"/>
     <sheet name="LCS" sheetId="2" r:id="rId2"/>
+    <sheet name="LIS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +149,62 @@
   </si>
   <si>
     <t>最长公共字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 8, 4, 12, 2, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长递增自序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长连续递增自序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 2, 8, 12, 4, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,4 +1931,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Algorithms/Dp/Dp.xlsx
+++ b/Algorithms/Dp/Dp.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>5|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[i,j] = s[i] == t[j] ? dp[i-1,j-1] : max(dp[i,j-1], dp[i-1,j])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[i,j] = s[i] == t[j] ? dp[i-1,j-1] +1, return max(dp[i,j])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[i,j] = s[i] == t[j] ? 1, return 对角线上1连续的最大次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1274,7 +1286,7 @@
     <col min="3" max="8" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1327,7 +1339,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1350,8 +1362,19 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1375,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1399,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1423,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1504,7 +1527,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1539,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1574,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1597,18 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1599,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1671,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1719,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +1775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1753,8 +1786,18 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1802,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1826,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1850,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1874,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1898,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1923,9 +1966,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="J24:Q24"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1938,7 +1984,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1972,29 +2018,32 @@
       <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="H2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
@@ -2099,12 +2148,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms/Dp/Dp.xlsx
+++ b/Algorithms/Dp/Dp.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Knapsack" sheetId="1" r:id="rId1"/>
     <sheet name="LCS" sheetId="2" r:id="rId2"/>
     <sheet name="LIS" sheetId="3" r:id="rId3"/>
+    <sheet name="Coin Exchange" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +218,14 @@
   </si>
   <si>
     <t>dp[i,j] = s[i] == t[j] ? 1, return 对角线上1连续的最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coins:1,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money:6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -337,13 +346,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +424,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,7 +2010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2160,4 +2187,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19">
+        <v>2</v>
+      </c>
+      <c r="H2" s="19">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Algorithms/Dp/Dp.xlsx
+++ b/Algorithms/Dp/Dp.xlsx
@@ -16,6 +16,7 @@
     <sheet name="LCS" sheetId="2" r:id="rId2"/>
     <sheet name="LIS" sheetId="3" r:id="rId3"/>
     <sheet name="Coin Exchange" sheetId="4" r:id="rId4"/>
+    <sheet name="Balance Partition" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +227,22 @@
   </si>
   <si>
     <t>money:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,1,3,2,2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coins:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,6 +424,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,9 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,22 +741,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -878,14 +895,14 @@
         <v>150</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -910,14 +927,14 @@
         <v>150</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -1012,22 +1029,22 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
@@ -1166,14 +1183,14 @@
         <v>7</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1198,14 +1215,14 @@
         <v>120</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1314,16 +1331,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="J1" t="s">
         <v>14</v>
       </c>
@@ -1389,17 +1406,17 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1555,16 +1572,16 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -1624,16 +1641,16 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1813,16 +1830,16 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
@@ -2017,14 +2034,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2045,11 +2062,11 @@
       <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -2070,19 +2087,19 @@
       <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -2103,11 +2120,11 @@
       <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -2148,11 +2165,11 @@
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -2191,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K3"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2203,24 +2220,24 @@
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
         <v>2</v>
       </c>
       <c r="J2" t="s">
@@ -2230,7 +2247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>0</v>
       </c>
@@ -2251,6 +2268,330 @@
       </c>
       <c r="H3">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/Dp/Dp.xlsx
+++ b/Algorithms/Dp/Dp.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -378,13 +378,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +462,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -741,22 +787,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -895,14 +941,14 @@
         <v>150</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -927,14 +973,14 @@
         <v>150</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
+      <c r="I6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -1029,22 +1075,22 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
@@ -1183,14 +1229,14 @@
         <v>7</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1215,14 +1261,14 @@
         <v>120</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1331,16 +1377,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="J1" t="s">
         <v>14</v>
       </c>
@@ -1406,17 +1452,17 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1572,16 +1618,16 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -1641,16 +1687,16 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1830,16 +1876,16 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
@@ -2034,14 +2080,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2062,11 +2108,11 @@
       <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -2087,19 +2133,19 @@
       <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -2120,11 +2166,11 @@
       <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -2165,11 +2211,11 @@
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -2208,20 +2254,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K11"/>
+  <dimension ref="A2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="3.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="13"/>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
@@ -2271,11 +2320,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
@@ -2288,13 +2343,13 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2320,48 +2375,177 @@
       <c r="H8">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Algorithms/Dp/Dp.xlsx
+++ b/Algorithms/Dp/Dp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Knapsack" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,30 @@
   </si>
   <si>
     <t>money:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2256,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -2556,21 +2580,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="2.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>0</v>
       </c>
@@ -2592,8 +2617,11 @@
       <c r="H1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2606,14 +2634,14 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2622,28 +2650,34 @@
       <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <v>5</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
         <v>5</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2652,7 +2686,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>0</v>
       </c>
@@ -2671,8 +2705,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2684,14 +2721,14 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>51</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2699,14 +2736,12 @@
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2720,16 +2755,20 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
       <c r="E10" s="5">
         <v>3</v>
       </c>
@@ -2740,12 +2779,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
@@ -2759,12 +2800,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
@@ -2777,6 +2820,361 @@
       <c r="G12" s="9">
         <v>5</v>
       </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <v>6</v>
+      </c>
+      <c r="I19" s="8">
+        <v>7</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="N23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>7</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
+        <v>6</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="N31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Algorithms/Dp/Dp.xlsx
+++ b/Algorithms/Dp/Dp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Hamu01-Github\SampleCode\Algorithms\Dp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\SampleCode\Algorithms\Dp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Knapsack" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>P:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,14 @@
   </si>
   <si>
     <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w\i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m[w,i]=m[w,i-1],m[w-w[i],i-1]+p[i-1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,9 +523,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,7 +547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -795,14 +809,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
@@ -1067,160 +1084,146 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E12" s="5">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F12" s="5">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="G12" s="6">
+        <v>100</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="K12" s="5">
-        <v>50</v>
-      </c>
-      <c r="L12" s="5">
-        <v>120</v>
-      </c>
-      <c r="M12" s="5">
-        <v>30</v>
-      </c>
-      <c r="N12" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>100</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5">
-        <v>5</v>
-      </c>
-      <c r="M13" s="5">
-        <v>3</v>
-      </c>
-      <c r="N13" s="6">
-        <v>3</v>
-      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>100</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>7</v>
+      <c r="D14" s="5">
+        <v>150</v>
+      </c>
+      <c r="E14" s="5">
+        <v>150</v>
+      </c>
+      <c r="F14" s="5">
+        <v>150</v>
+      </c>
+      <c r="G14" s="6">
+        <v>160</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1231,153 +1234,390 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="5">
         <v>100</v>
       </c>
-      <c r="D15" s="11">
-        <v>50</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="5">
         <v>150</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>7</v>
+      <c r="E15" s="5">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5">
+        <v>150</v>
+      </c>
+      <c r="G15" s="6">
+        <v>160</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
         <v>100</v>
       </c>
-      <c r="D16" s="11">
-        <v>50</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="8">
         <v>150</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6">
-        <v>120</v>
+      <c r="E16" s="8">
+        <v>150</v>
+      </c>
+      <c r="F16" s="8">
+        <v>150</v>
+      </c>
+      <c r="G16" s="9">
+        <v>210</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>100</v>
-      </c>
-      <c r="D17" s="11">
-        <v>50</v>
-      </c>
-      <c r="E17" s="11">
-        <v>150</v>
-      </c>
-      <c r="F17" s="11">
-        <v>130</v>
-      </c>
-      <c r="G17" s="6">
-        <v>120</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>100</v>
-      </c>
-      <c r="D18" s="8">
-        <v>50</v>
-      </c>
-      <c r="E18" s="8">
-        <v>150</v>
-      </c>
-      <c r="F18" s="8">
-        <v>160</v>
-      </c>
-      <c r="G18" s="9">
-        <v>120</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="6"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>100</v>
+      </c>
+      <c r="K21" s="5">
+        <v>50</v>
+      </c>
+      <c r="L21" s="5">
+        <v>120</v>
+      </c>
+      <c r="M21" s="5">
+        <v>30</v>
+      </c>
+      <c r="N21" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>5</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3</v>
+      </c>
+      <c r="N22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>100</v>
+      </c>
+      <c r="D24" s="11">
+        <v>50</v>
+      </c>
+      <c r="E24" s="11">
+        <v>150</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>100</v>
+      </c>
+      <c r="D25" s="11">
+        <v>50</v>
+      </c>
+      <c r="E25" s="11">
+        <v>150</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="6">
+        <v>120</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>100</v>
+      </c>
+      <c r="D26" s="11">
+        <v>50</v>
+      </c>
+      <c r="E26" s="11">
+        <v>150</v>
+      </c>
+      <c r="F26" s="11">
+        <v>130</v>
+      </c>
+      <c r="G26" s="6">
+        <v>120</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>100</v>
+      </c>
+      <c r="D27" s="8">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8">
+        <v>150</v>
+      </c>
+      <c r="F27" s="8">
+        <v>160</v>
+      </c>
+      <c r="G27" s="9">
+        <v>120</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I16:N16"/>
+  <mergeCells count="7">
+    <mergeCell ref="I25:N25"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I12:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
